--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.897689666666666</v>
+        <v>5.198148666666667</v>
       </c>
       <c r="H2">
-        <v>14.693069</v>
+        <v>15.594446</v>
       </c>
       <c r="I2">
-        <v>0.07641871990107107</v>
+        <v>0.06659084221819957</v>
       </c>
       <c r="J2">
-        <v>0.07641871990107106</v>
+        <v>0.06659084221819957</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N2">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O2">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P2">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q2">
-        <v>124.709465474091</v>
+        <v>0.3523651709511111</v>
       </c>
       <c r="R2">
-        <v>1122.385189266819</v>
+        <v>3.17128653856</v>
       </c>
       <c r="S2">
-        <v>0.04335240467427349</v>
+        <v>0.0006836670572455445</v>
       </c>
       <c r="T2">
-        <v>0.04335240467427347</v>
+        <v>0.0006836670572455445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.897689666666666</v>
+        <v>5.198148666666667</v>
       </c>
       <c r="H3">
-        <v>14.693069</v>
+        <v>15.594446</v>
       </c>
       <c r="I3">
-        <v>0.07641871990107107</v>
+        <v>0.06659084221819957</v>
       </c>
       <c r="J3">
-        <v>0.07641871990107106</v>
+        <v>0.06659084221819957</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.310395</v>
       </c>
       <c r="O3">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P3">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q3">
-        <v>0.5067394613616665</v>
+        <v>0.5378264517966667</v>
       </c>
       <c r="R3">
-        <v>4.560655152254999</v>
+        <v>4.84043806617</v>
       </c>
       <c r="S3">
-        <v>0.00017615642974541</v>
+        <v>0.001043503325303554</v>
       </c>
       <c r="T3">
-        <v>0.0001761564297454099</v>
+        <v>0.001043503325303554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.198148666666667</v>
+      </c>
+      <c r="H4">
+        <v>15.594446</v>
+      </c>
+      <c r="I4">
+        <v>0.06659084221819957</v>
+      </c>
+      <c r="J4">
+        <v>0.06659084221819957</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>4.897689666666666</v>
-      </c>
-      <c r="H4">
-        <v>14.693069</v>
-      </c>
-      <c r="I4">
-        <v>0.07641871990107107</v>
-      </c>
-      <c r="J4">
-        <v>0.07641871990107106</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N4">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O4">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P4">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q4">
-        <v>0.4325541559806665</v>
+        <v>0.4388900882240001</v>
       </c>
       <c r="R4">
-        <v>3.892987403825999</v>
+        <v>3.950010794016</v>
       </c>
       <c r="S4">
-        <v>0.0001503675983400678</v>
+        <v>0.0008515447036391986</v>
       </c>
       <c r="T4">
-        <v>0.0001503675983400678</v>
+        <v>0.0008515447036391985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.897689666666666</v>
+        <v>5.198148666666667</v>
       </c>
       <c r="H5">
-        <v>14.693069</v>
+        <v>15.594446</v>
       </c>
       <c r="I5">
-        <v>0.07641871990107107</v>
+        <v>0.06659084221819957</v>
       </c>
       <c r="J5">
-        <v>0.07641871990107106</v>
+        <v>0.06659084221819957</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N5">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O5">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P5">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q5">
-        <v>94.18074708431753</v>
+        <v>32.99214709962889</v>
       </c>
       <c r="R5">
-        <v>847.6267237588579</v>
+        <v>296.92932389666</v>
       </c>
       <c r="S5">
-        <v>0.03273979119871211</v>
+        <v>0.06401212713201128</v>
       </c>
       <c r="T5">
-        <v>0.03273979119871211</v>
+        <v>0.06401212713201128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>38.979103</v>
       </c>
       <c r="I6">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="J6">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N6">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O6">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P6">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q6">
-        <v>330.8405548078171</v>
+        <v>0.8807544873422222</v>
       </c>
       <c r="R6">
-        <v>2977.564993270353</v>
+        <v>7.92679038608</v>
       </c>
       <c r="S6">
-        <v>0.1150091820229108</v>
+        <v>0.001708860234091097</v>
       </c>
       <c r="T6">
-        <v>0.1150091820229108</v>
+        <v>0.001708860234091097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.979103</v>
       </c>
       <c r="I7">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="J7">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.310395</v>
       </c>
       <c r="O7">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P7">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q7">
         <v>1.344324297298333</v>
@@ -883,10 +883,10 @@
         <v>12.098918675685</v>
       </c>
       <c r="S7">
-        <v>0.0004673237169959932</v>
+        <v>0.002608289104842182</v>
       </c>
       <c r="T7">
-        <v>0.0004673237169959931</v>
+        <v>0.002608289104842182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>38.979103</v>
       </c>
       <c r="I8">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="J8">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N8">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O8">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P8">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q8">
-        <v>1.147518806251333</v>
+        <v>1.097027874832</v>
       </c>
       <c r="R8">
-        <v>10.327669256262</v>
+        <v>9.873250873487999</v>
       </c>
       <c r="S8">
-        <v>0.0003989087714459201</v>
+        <v>0.002128478864350602</v>
       </c>
       <c r="T8">
-        <v>0.0003989087714459201</v>
+        <v>0.002128478864350602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.979103</v>
       </c>
       <c r="I9">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="J9">
-        <v>0.2027304951846343</v>
+        <v>0.1664471631553919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N9">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O9">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P9">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q9">
-        <v>249.8512081592051</v>
+        <v>82.46553292034778</v>
       </c>
       <c r="R9">
-        <v>2248.660873432846</v>
+        <v>742.18979628313</v>
       </c>
       <c r="S9">
-        <v>0.08685508067328161</v>
+        <v>0.1600015349521081</v>
       </c>
       <c r="T9">
-        <v>0.08685508067328161</v>
+        <v>0.1600015349521081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.08104666666666</v>
+        <v>59.72155033333333</v>
       </c>
       <c r="H10">
-        <v>138.24314</v>
+        <v>179.164651</v>
       </c>
       <c r="I10">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="J10">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N10">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O10">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P10">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q10">
-        <v>1173.35786654646</v>
+        <v>4.048324825262222</v>
       </c>
       <c r="R10">
-        <v>10560.22079891814</v>
+        <v>36.43492342736</v>
       </c>
       <c r="S10">
-        <v>0.4078911321196574</v>
+        <v>0.007854653490838661</v>
       </c>
       <c r="T10">
-        <v>0.4078911321196574</v>
+        <v>0.007854653490838661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.08104666666666</v>
+        <v>59.72155033333333</v>
       </c>
       <c r="H11">
-        <v>138.24314</v>
+        <v>179.164651</v>
       </c>
       <c r="I11">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="J11">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.310395</v>
       </c>
       <c r="O11">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P11">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q11">
-        <v>4.767775493366665</v>
+        <v>6.179090205238333</v>
       </c>
       <c r="R11">
-        <v>42.90997944029999</v>
+        <v>55.61181184714499</v>
       </c>
       <c r="S11">
-        <v>0.001657408535901851</v>
+        <v>0.01198881377994132</v>
       </c>
       <c r="T11">
-        <v>0.001657408535901851</v>
+        <v>0.01198881377994132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.08104666666666</v>
+        <v>59.72155033333333</v>
       </c>
       <c r="H12">
-        <v>138.24314</v>
+        <v>179.164651</v>
       </c>
       <c r="I12">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="J12">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N12">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O12">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P12">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q12">
-        <v>4.069785879506665</v>
+        <v>5.042409937744</v>
       </c>
       <c r="R12">
-        <v>36.62807291555999</v>
+        <v>45.38168943969599</v>
       </c>
       <c r="S12">
-        <v>0.001414768347497025</v>
+        <v>0.00978340042592186</v>
       </c>
       <c r="T12">
-        <v>0.001414768347497025</v>
+        <v>0.009783400425921858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.08104666666666</v>
+        <v>59.72155033333333</v>
       </c>
       <c r="H13">
-        <v>138.24314</v>
+        <v>179.164651</v>
       </c>
       <c r="I13">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="J13">
-        <v>0.7190032112354848</v>
+        <v>0.7650624463235045</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N13">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O13">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P13">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q13">
-        <v>886.1213545299421</v>
+        <v>379.0469068824678</v>
       </c>
       <c r="R13">
-        <v>7975.092190769479</v>
+        <v>3411.42216194221</v>
       </c>
       <c r="S13">
-        <v>0.3080399022324285</v>
+        <v>0.7354355786268028</v>
       </c>
       <c r="T13">
-        <v>0.3080399022324285</v>
+        <v>0.7354355786268028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1184113333333333</v>
+        <v>0.1482806666666667</v>
       </c>
       <c r="H14">
-        <v>0.355234</v>
+        <v>0.444842</v>
       </c>
       <c r="I14">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="J14">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>25.462917</v>
+        <v>0.06778666666666666</v>
       </c>
       <c r="N14">
-        <v>76.388751</v>
+        <v>0.20336</v>
       </c>
       <c r="O14">
-        <v>0.5673008489332974</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="P14">
-        <v>0.5673008489332972</v>
+        <v>0.01026668284214455</v>
       </c>
       <c r="Q14">
-        <v>3.015097952526</v>
+        <v>0.01005145212444444</v>
       </c>
       <c r="R14">
-        <v>27.135881572734</v>
+        <v>0.09046306912</v>
       </c>
       <c r="S14">
-        <v>0.001048130116455648</v>
+        <v>1.950205996924947E-05</v>
       </c>
       <c r="T14">
-        <v>0.001048130116455648</v>
+        <v>1.950205996924947E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1184113333333333</v>
+        <v>0.1482806666666667</v>
       </c>
       <c r="H15">
-        <v>0.355234</v>
+        <v>0.444842</v>
       </c>
       <c r="I15">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="J15">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.310395</v>
       </c>
       <c r="O15">
-        <v>0.002305147612698247</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="P15">
-        <v>0.002305147612698246</v>
+        <v>0.01567037284022157</v>
       </c>
       <c r="Q15">
-        <v>0.01225142860333333</v>
+        <v>0.01534185917666667</v>
       </c>
       <c r="R15">
-        <v>0.11026285743</v>
+        <v>0.13807673259</v>
       </c>
       <c r="S15">
-        <v>4.258930054992662E-06</v>
+        <v>2.976663013451607E-05</v>
       </c>
       <c r="T15">
-        <v>4.258930054992661E-06</v>
+        <v>2.976663013451607E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1184113333333333</v>
+        <v>0.1482806666666667</v>
       </c>
       <c r="H16">
-        <v>0.355234</v>
+        <v>0.444842</v>
       </c>
       <c r="I16">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="J16">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.08831799999999999</v>
+        <v>0.08443199999999999</v>
       </c>
       <c r="N16">
-        <v>0.264954</v>
+        <v>0.253296</v>
       </c>
       <c r="O16">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="P16">
-        <v>0.001967680151338943</v>
+        <v>0.01278771487600239</v>
       </c>
       <c r="Q16">
-        <v>0.01045785213733333</v>
+        <v>0.012519633248</v>
       </c>
       <c r="R16">
-        <v>0.09412066923599999</v>
+        <v>0.112676699232</v>
       </c>
       <c r="S16">
-        <v>3.63543405593043E-06</v>
+        <v>2.429088209073079E-05</v>
       </c>
       <c r="T16">
-        <v>3.635434055930429E-06</v>
+        <v>2.429088209073078E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1184113333333333</v>
+        <v>0.1482806666666667</v>
       </c>
       <c r="H17">
-        <v>0.355234</v>
+        <v>0.444842</v>
       </c>
       <c r="I17">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="J17">
-        <v>0.001847573678809858</v>
+        <v>0.001899548302904017</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.22962733333333</v>
+        <v>6.346903333333334</v>
       </c>
       <c r="N17">
-        <v>57.688882</v>
+        <v>19.04071</v>
       </c>
       <c r="O17">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="P17">
-        <v>0.4284263233026655</v>
+        <v>0.9612752294416316</v>
       </c>
       <c r="Q17">
-        <v>2.277005812043111</v>
+        <v>0.9411230575355556</v>
       </c>
       <c r="R17">
-        <v>20.493052308388</v>
+        <v>8.470107517820001</v>
       </c>
       <c r="S17">
-        <v>0.0007915491982432875</v>
+        <v>0.00182598873070952</v>
       </c>
       <c r="T17">
-        <v>0.0007915491982432874</v>
+        <v>0.00182598873070952</v>
       </c>
     </row>
   </sheetData>
